--- a/doc/Results/Results_Summery.xlsx
+++ b/doc/Results/Results_Summery.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resnet18_CIFAR10_ps2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>Max Granularity</t>
   </si>
@@ -57,6 +57,27 @@
   </si>
   <si>
     <t>Ops Saved</t>
+  </si>
+  <si>
+    <t>Patch Size</t>
+  </si>
+  <si>
+    <t>Ones Range</t>
+  </si>
+  <si>
+    <t>(1,2)</t>
+  </si>
+  <si>
+    <t>[inclusive]</t>
+  </si>
+  <si>
+    <t>Initial Accuracy</t>
+  </si>
+  <si>
+    <t>Base Line:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Accuracy - Baseline Accuracy = </t>
   </si>
 </sst>
 </file>
@@ -109,6 +130,3060 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Resnet18,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> CIFAR10, Patch Size = 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15625456412044436"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13914925763430863"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.61120686482455377"/>
+          <c:h val="0.63660505978419368"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resnet18_CIFAR10_ps2!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$B$12:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13670299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.150092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18238399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.232431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.253216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resnet18_CIFAR10_ps2!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Patch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13694899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18279300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18279300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27123599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resnet18_CIFAR10_ps2!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Filters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.8011000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.115243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18605099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.235906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.235906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resnet18_CIFAR10_ps2!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$A$12:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$E$12:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.8181999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.140211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17497499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23669000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23885899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resnet18_CIFAR10_ps2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Line:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resnet18_CIFAR10_ps2!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.23504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="541453840"/>
+        <c:axId val="541458936"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Resnet18_CIFAR10_ps2!$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Base Line</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Resnet18_CIFAR10_ps2!$A$12:$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Resnet18_CIFAR10_ps2!$F$12:$F$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.23504</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.23504</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.23504</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.23504</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.23504</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="541453840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Accuracy Loss [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541458936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="541458936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.28500000000000003"/>
+          <c:min val="8.500000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operations Saved </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541453840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7650752050827595"/>
+          <c:y val="0.28174613589967923"/>
+          <c:w val="0.2349247949172405"/>
+          <c:h val="0.39062773403324585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AlexNet, CIFAR10, Patch Size = 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Alexnet_CIFAR10_ps2!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2909000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23094600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23094600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26904299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.333092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Alexnet_CIFAR10_ps2!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Patch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$C$12:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5907999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23410800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23535400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26868999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26868999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Alexnet_CIFAR10_ps2!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Filters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$D$12:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.184276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.184276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.235627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25025399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Alexnet_CIFAR10_ps2!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$A$12:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$E$12:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23619799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24921299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Alexnet_CIFAR10_ps2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base Line:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Alexnet_CIFAR10_ps2!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="541456976"/>
+        <c:axId val="541458152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="541456976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Accuracy Loss</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541458152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="541458152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.35000000000000003"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operatuins Saved </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541456976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,223 +3449,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.23504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>B3-C5</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B12">
         <v>0.13670299999999999</v>
       </c>
-      <c r="C2">
+      <c r="C12">
         <f>0.136949</f>
         <v>0.13694899999999999</v>
       </c>
-      <c r="D2">
+      <c r="D12">
         <f>0.088011</f>
         <v>8.8011000000000006E-2</v>
       </c>
-      <c r="E2">
+      <c r="E12">
         <f>0.088182</f>
         <v>8.8181999999999996E-2</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
+      <c r="F12">
+        <f>$C$6</f>
+        <v>0.23504</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>0.150092</v>
+      </c>
+      <c r="C13">
+        <v>0.18279300000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.115243</v>
+      </c>
+      <c r="E13">
+        <v>0.140211</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F16" si="0">$C$6</f>
+        <v>0.23504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B14">
         <v>0.18238399999999999</v>
       </c>
-      <c r="C3">
+      <c r="C14">
         <v>0.18279300000000001</v>
       </c>
-      <c r="D3">
+      <c r="D14">
         <f>0.186051</f>
         <v>0.18605099999999999</v>
       </c>
-      <c r="E3">
+      <c r="E14">
         <f>0.174975</f>
         <v>0.17497499999999999</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.23504</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3.5</v>
       </c>
-      <c r="B4">
+      <c r="B15">
         <v>0.232431</v>
       </c>
-      <c r="C4">
+      <c r="C15">
         <v>0.253218</v>
       </c>
-      <c r="D4">
+      <c r="D15">
         <v>0.235906</v>
       </c>
-      <c r="E4">
+      <c r="E15">
         <v>0.23669000000000001</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.23504</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B16">
         <v>0.253216</v>
       </c>
-      <c r="C5">
+      <c r="C16">
         <v>0.27123599999999998</v>
       </c>
-      <c r="D5">
+      <c r="D16">
         <v>0.235906</v>
       </c>
-      <c r="E5">
+      <c r="E16">
         <f>0.238859</f>
         <v>0.23885899999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.23504</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.23504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>B3-C5</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>3.5</v>
       </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B12">
+        <v>0.18279300000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.21626799999999999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>0.253218</v>
       </c>
+      <c r="G12">
+        <v>0.25907599999999997</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0.27123599999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.26014999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B13">
+        <f>0.186051</f>
+        <v>0.18605099999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.20034099999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
         <v>0.235906</v>
       </c>
+      <c r="G13">
+        <v>0.25630199999999997</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0.235906</v>
+      </c>
+      <c r="K13">
+        <v>0.26941599999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B14">
+        <f>0.174975</f>
+        <v>0.17497499999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.21859200000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
         <v>0.23669000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.255382</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f>0.238859</f>
+        <v>0.23885899999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.26025799999999999</v>
       </c>
     </row>
   </sheetData>
@@ -612,12 +3876,214 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>B3-C5</f>
+        <v>13.199999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>9.2909000000000005E-2</v>
+      </c>
+      <c r="C14">
+        <v>9.5907999999999993E-2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.5</v>
+      </c>
+      <c r="B15">
+        <v>0.23094600000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.23410800000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.184276</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.23094600000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.23535400000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.184276</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.26904299999999998</v>
+      </c>
+      <c r="C17">
+        <v>0.26868999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.235627</v>
+      </c>
+      <c r="E17">
+        <v>0.23619799999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13.2</v>
+      </c>
+      <c r="B18">
+        <v>0.333092</v>
+      </c>
+      <c r="C18">
+        <v>0.26868999999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.25025399999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.24921299999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>